--- a/tests/solowmodel.xlsx
+++ b/tests/solowmodel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dietz/Library/CloudStorage/Dropbox/Project/StudyGuide/solow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dietz/Library/CloudStorage/Dropbox/Project/StudyGuide/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6A74F9-497E-4C4E-9FAA-98B21B0341D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2337CDE-08D5-C845-AB3E-1B5D6A242B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="34500" windowHeight="22600" xr2:uid="{766A9E66-545D-034F-944F-E69BE052E8C3}"/>
   </bookViews>
@@ -5259,7 +5259,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -5364,23 +5364,23 @@
         <v>1</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" ref="J5:J36" si="0">G5^B5*(H5*I5)^(1-B5)</f>
+        <f>G5^B5*(H5*I5)^(1-B5)</f>
         <v>1.6539524776347969</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ref="K5:K36" si="1">J5/I5</f>
+        <f t="shared" ref="K5:K36" si="0">J5/I5</f>
         <v>1.6539524776347969</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" ref="L5:L36" si="2">G5/(H5*I5)</f>
+        <f t="shared" ref="L5:L36" si="1">G5/(H5*I5)</f>
         <v>4.5940000000000003</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" ref="M5:M36" si="3">C5*(1/L5)^(1-B5)-E5</f>
+        <f>C5*(1/L5)^(1-B5)-E5</f>
         <v>2.2004896718972433E-2</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" ref="N5:N36" si="4">B5*(M5-F5-D5)+F5</f>
+        <f t="shared" ref="N5:N36" si="2">B5*(M5-F5-D5)+F5</f>
         <v>2.4061615917260901E-2</v>
       </c>
       <c r="O5" s="2">
@@ -5438,23 +5438,23 @@
         <v>1.0100501670841679</v>
       </c>
       <c r="J6" s="2">
+        <f t="shared" ref="J5:J36" si="3">G6^B6*(H6*I6)^(1-B6)</f>
+        <v>1.7112592111784113</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="0"/>
-        <v>1.7112592111784113</v>
-      </c>
-      <c r="K6" s="2">
+        <v>1.6942318975289188</v>
+      </c>
+      <c r="L6" s="2">
         <f t="shared" si="1"/>
-        <v>1.6942318975289188</v>
-      </c>
-      <c r="L6" s="2">
+        <v>4.51206987693811</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" ref="M5:M36" si="4">C6*(1/L6)^(1-B6)-E6</f>
+        <v>2.2878294113125724E-2</v>
+      </c>
+      <c r="N6" s="2">
         <f t="shared" si="2"/>
-        <v>4.51206987693811</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="3"/>
-        <v>2.2878294113125724E-2</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" si="4"/>
         <v>2.4349837057331486E-2</v>
       </c>
       <c r="O6" s="2">
@@ -5512,23 +5512,23 @@
         <v>1.0202013400267556</v>
       </c>
       <c r="J7" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7710619127308624</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>1.7710619127308624</v>
-      </c>
-      <c r="K7" s="2">
+        <v>1.7359925372029161</v>
+      </c>
+      <c r="L7" s="2">
         <f t="shared" si="1"/>
-        <v>1.7359925372029161</v>
-      </c>
-      <c r="L7" s="2">
+        <v>4.4354731480987581</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3719134239621312E-2</v>
+      </c>
+      <c r="N7" s="2">
         <f t="shared" si="2"/>
-        <v>4.4354731480987581</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="3"/>
-        <v>2.3719134239621312E-2</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="4"/>
         <v>2.4627314299075033E-2</v>
       </c>
       <c r="O7" s="2">
@@ -5586,23 +5586,23 @@
         <v>1.0304545339535165</v>
       </c>
       <c r="J8" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8334631894696349</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>1.8334631894696349</v>
-      </c>
-      <c r="K8" s="2">
+        <v>1.77927616314641</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="1"/>
-        <v>1.77927616314641</v>
-      </c>
-      <c r="L8" s="2">
+        <v>4.3638444757804384</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="4"/>
+        <v>2.4527677681199678E-2</v>
+      </c>
+      <c r="N8" s="2">
         <f t="shared" si="2"/>
-        <v>4.3638444757804384</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="3"/>
-        <v>2.4527677681199678E-2</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" si="4"/>
         <v>2.4894133634795892E-2</v>
       </c>
       <c r="O8" s="2">
@@ -5660,23 +5660,23 @@
         <v>1.0408107741923878</v>
       </c>
       <c r="J9" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8985696090701099</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="0"/>
-        <v>1.8985696090701099</v>
-      </c>
-      <c r="K9" s="2">
+        <v>1.8241256298901172</v>
+      </c>
+      <c r="L9" s="2">
         <f t="shared" si="1"/>
-        <v>1.8241256298901172</v>
-      </c>
-      <c r="L9" s="2">
+        <v>4.2968453203533583</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="4"/>
+        <v>2.5304283941785258E-2</v>
+      </c>
+      <c r="N9" s="2">
         <f t="shared" si="2"/>
-        <v>4.2968453203533583</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="3"/>
-        <v>2.5304283941785258E-2</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" si="4"/>
         <v>2.5150413700789135E-2</v>
       </c>
       <c r="O9" s="2">
@@ -5734,23 +5734,23 @@
         <v>1.0512710963760235</v>
       </c>
       <c r="J10" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9664918707567367</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="0"/>
-        <v>1.9664918707567367</v>
-      </c>
-      <c r="K10" s="2">
+        <v>1.8705849305052642</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="1"/>
-        <v>1.8705849305052642</v>
-      </c>
-      <c r="L10" s="2">
+        <v>4.2341618191582047</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="4"/>
+        <v>2.6049401937429162E-2</v>
+      </c>
+      <c r="N10" s="2">
         <f t="shared" si="2"/>
-        <v>4.2341618191582047</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="3"/>
-        <v>2.6049401937429162E-2</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" si="4"/>
         <v>2.5396302639351623E-2</v>
       </c>
       <c r="O10" s="2">
@@ -5808,23 +5808,23 @@
         <v>1.061836546545359</v>
       </c>
       <c r="J11" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0373449837769861</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="0"/>
-        <v>2.0373449837769861</v>
-      </c>
-      <c r="K11" s="2">
+        <v>1.9186992483969434</v>
+      </c>
+      <c r="L11" s="2">
         <f t="shared" si="1"/>
-        <v>1.9186992483969434</v>
-      </c>
-      <c r="L11" s="2">
+        <v>4.1755028447185678</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="4"/>
+        <v>2.6763560531171501E-2</v>
+      </c>
+      <c r="N11" s="2">
         <f t="shared" si="2"/>
-        <v>4.1755028447185678</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="3"/>
-        <v>2.6763560531171501E-2</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" si="4"/>
         <v>2.5631974975286596E-2</v>
       </c>
       <c r="O11" s="2">
@@ -5882,23 +5882,23 @@
         <v>1.0725081812542157</v>
       </c>
       <c r="J12" s="2">
+        <f t="shared" si="3"/>
+        <v>2.1112484534932561</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="0"/>
-        <v>2.1112484534932561</v>
-      </c>
-      <c r="K12" s="2">
+        <v>1.9685150103231042</v>
+      </c>
+      <c r="L12" s="2">
         <f t="shared" si="1"/>
-        <v>1.9685150103231042</v>
-      </c>
-      <c r="L12" s="2">
+        <v>4.1205982265105838</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="4"/>
+        <v>2.7447359223613424E-2</v>
+      </c>
+      <c r="N12" s="2">
         <f t="shared" si="2"/>
-        <v>4.1205982265105838</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="3"/>
-        <v>2.7447359223613424E-2</v>
-      </c>
-      <c r="N12" s="2">
-        <f t="shared" si="4"/>
         <v>2.5857628543792428E-2</v>
       </c>
       <c r="O12" s="2">
@@ -5956,23 +5956,23 @@
         <v>1.0832870676749575</v>
       </c>
       <c r="J13" s="2">
+        <f t="shared" si="3"/>
+        <v>2.1883264753024201</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>2.1883264753024201</v>
-      </c>
-      <c r="K13" s="2">
+        <v>2.0200799405823164</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="1"/>
-        <v>2.0200799405823164</v>
-      </c>
-      <c r="L13" s="2">
+        <v>4.0691971219224685</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="4"/>
+        <v>2.8101459095349973E-2</v>
+      </c>
+      <c r="N13" s="2">
         <f t="shared" si="2"/>
-        <v>4.0691971219224685</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="3"/>
-        <v>2.8101459095349973E-2</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="4"/>
         <v>2.607348150146549E-2</v>
       </c>
       <c r="O13" s="2">
@@ -6030,23 +6030,23 @@
         <v>1.0941742837052093</v>
       </c>
       <c r="J14" s="2">
+        <f t="shared" si="3"/>
+        <v>2.2687081366085646</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="0"/>
-        <v>2.2687081366085646</v>
-      </c>
-      <c r="K14" s="2">
+        <v>2.073443116325147</v>
+      </c>
+      <c r="L14" s="2">
         <f t="shared" si="1"/>
-        <v>2.073443116325147</v>
-      </c>
-      <c r="L14" s="2">
+        <v>4.0210665233069438</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="4"/>
+        <v>2.8726574081883005E-2</v>
+      </c>
+      <c r="N14" s="2">
         <f t="shared" si="2"/>
-        <v>4.0210665233069438</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="3"/>
-        <v>2.8726574081883005E-2</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="4"/>
         <v>2.627976944702139E-2</v>
       </c>
       <c r="O14" s="2">
@@ -6104,23 +6104,23 @@
         <v>1.1051709180756464</v>
       </c>
       <c r="J15" s="2">
+        <f t="shared" si="3"/>
+        <v>2.352527627091439</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>2.352527627091439</v>
-      </c>
-      <c r="K15" s="2">
+        <v>2.128655023955683</v>
+      </c>
+      <c r="L15" s="2">
         <f t="shared" si="1"/>
-        <v>2.128655023955683</v>
-      </c>
-      <c r="L15" s="2">
+        <v>3.9759898891908985</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="4"/>
+        <v>2.9323462646578854E-2</v>
+      </c>
+      <c r="N15" s="2">
         <f t="shared" si="2"/>
-        <v>3.9759898891908985</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="3"/>
-        <v>2.9323462646578854E-2</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="4"/>
         <v>2.647674267337102E-2</v>
       </c>
       <c r="O15" s="2">
@@ -6178,23 +6178,23 @@
         <v>1.11627807045887</v>
       </c>
       <c r="J16" s="2">
+        <f t="shared" si="3"/>
+        <v>2.4399244575311454</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="0"/>
-        <v>2.4399244575311454</v>
-      </c>
-      <c r="K16" s="2">
+        <v>2.1857676166012672</v>
+      </c>
+      <c r="L16" s="2">
         <f t="shared" si="1"/>
-        <v>2.1857676166012672</v>
-      </c>
-      <c r="L16" s="2">
+        <v>3.933765888767593</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="4"/>
+        <v>2.9892919902962903E-2</v>
+      </c>
+      <c r="N16" s="2">
         <f t="shared" si="2"/>
-        <v>3.933765888767593</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="3"/>
-        <v>2.9892919902962903E-2</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="4"/>
         <v>2.6664663567977757E-2</v>
       </c>
       <c r="O16" s="2">
@@ -6252,23 +6252,23 @@
         <v>1.1274968515793742</v>
       </c>
       <c r="J17" s="2">
+        <f t="shared" si="3"/>
+        <v>2.5310436874684465</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="0"/>
-        <v>2.5310436874684465</v>
-      </c>
-      <c r="K17" s="2">
+        <v>2.2448343726397222</v>
+      </c>
+      <c r="L17" s="2">
         <f t="shared" si="1"/>
-        <v>2.2448343726397222</v>
-      </c>
-      <c r="L17" s="2">
+        <v>3.8942072497657434</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="4"/>
+        <v>3.0435770224374242E-2</v>
+      </c>
+      <c r="N17" s="2">
         <f t="shared" si="2"/>
-        <v>3.8942072497657434</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="3"/>
-        <v>3.0435770224374242E-2</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="4"/>
         <v>2.6843804174043501E-2</v>
       </c>
       <c r="O17" s="2">
@@ -6326,23 +6326,23 @@
         <v>1.1388283833246202</v>
       </c>
       <c r="J18" s="2">
+        <f t="shared" si="3"/>
+        <v>2.6260361619996173</v>
+      </c>
+      <c r="K18" s="2">
         <f t="shared" si="0"/>
-        <v>2.6260361619996173</v>
-      </c>
-      <c r="K18" s="2">
+        <v>2.3059103552840341</v>
+      </c>
+      <c r="L18" s="2">
         <f t="shared" si="1"/>
-        <v>2.3059103552840341</v>
-      </c>
-      <c r="L18" s="2">
+        <v>3.8571397006742765</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="4"/>
+        <v>3.0952860366900189E-2</v>
+      </c>
+      <c r="N18" s="2">
         <f t="shared" si="2"/>
-        <v>3.8571397006742765</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="3"/>
-        <v>3.0952860366900189E-2</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" si="4"/>
         <v>2.7014443921077061E-2</v>
       </c>
       <c r="O18" s="2">
@@ -6400,23 +6400,23 @@
         <v>1.1502737988572256</v>
       </c>
       <c r="J19" s="2">
+        <f t="shared" si="3"/>
+        <v>2.7250587580249954</v>
+      </c>
+      <c r="K19" s="2">
         <f t="shared" si="0"/>
-        <v>2.7250587580249954</v>
-      </c>
-      <c r="K19" s="2">
+        <v>2.3690522732346748</v>
+      </c>
+      <c r="L19" s="2">
         <f t="shared" si="1"/>
-        <v>2.3690522732346748</v>
-      </c>
-      <c r="L19" s="2">
+        <v>3.8224009991084715</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="4"/>
+        <v>3.1445053120670793E-2</v>
+      </c>
+      <c r="N19" s="2">
         <f t="shared" si="2"/>
-        <v>3.8224009991084715</v>
-      </c>
-      <c r="M19" s="2">
-        <f t="shared" si="3"/>
-        <v>3.1445053120670793E-2</v>
-      </c>
-      <c r="N19" s="2">
-        <f t="shared" si="4"/>
         <v>2.7176867529821361E-2</v>
       </c>
       <c r="O19" s="2">
@@ -6474,23 +6474,23 @@
         <v>1.1618342427282813</v>
       </c>
       <c r="J20" s="2">
+        <f t="shared" si="3"/>
+        <v>2.8282746402911085</v>
+      </c>
+      <c r="K20" s="2">
         <f t="shared" si="0"/>
-        <v>2.8282746402911085</v>
-      </c>
-      <c r="K20" s="2">
+        <v>2.4343185424192719</v>
+      </c>
+      <c r="L20" s="2">
         <f t="shared" si="1"/>
-        <v>2.4343185424192719</v>
-      </c>
-      <c r="L20" s="2">
+        <v>3.7898400388389821</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="4"/>
+        <v>3.1913221495064578E-2</v>
+      </c>
+      <c r="N20" s="2">
         <f t="shared" si="2"/>
-        <v>3.7898400388389821</v>
-      </c>
-      <c r="M20" s="2">
-        <f t="shared" si="3"/>
-        <v>3.1913221495064578E-2</v>
-      </c>
-      <c r="N20" s="2">
-        <f t="shared" si="4"/>
         <v>2.7331363093371308E-2</v>
       </c>
       <c r="O20" s="2">
@@ -6548,23 +6548,23 @@
         <v>1.1735108709918083</v>
       </c>
       <c r="J21" s="2">
+        <f t="shared" si="3"/>
+        <v>2.9358535275874607</v>
+      </c>
+      <c r="K21" s="2">
         <f t="shared" si="0"/>
-        <v>2.9358535275874607</v>
-      </c>
-      <c r="K21" s="2">
+        <v>2.5017693488482005</v>
+      </c>
+      <c r="L21" s="2">
         <f t="shared" si="1"/>
-        <v>2.5017693488482005</v>
-      </c>
-      <c r="L21" s="2">
+        <v>3.7593160286758565</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="4"/>
+        <v>3.2358243435160125E-2</v>
+      </c>
+      <c r="N21" s="2">
         <f t="shared" si="2"/>
-        <v>3.7593160286758565</v>
-      </c>
-      <c r="M21" s="2">
-        <f t="shared" si="3"/>
-        <v>3.2358243435160125E-2</v>
-      </c>
-      <c r="N21" s="2">
-        <f t="shared" si="4"/>
         <v>2.7478220333602841E-2</v>
       </c>
       <c r="O21" s="2">
@@ -6622,23 +6622,23 @@
         <v>1.1853048513203635</v>
       </c>
       <c r="J22" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0479719694807015</v>
+      </c>
+      <c r="K22" s="2">
         <f t="shared" si="0"/>
-        <v>3.0479719694807015</v>
-      </c>
-      <c r="K22" s="2">
+        <v>2.571466712622859</v>
+      </c>
+      <c r="L22" s="2">
         <f t="shared" si="1"/>
-        <v>2.571466712622859</v>
-      </c>
-      <c r="L22" s="2">
+        <v>3.7306977370105874</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="4"/>
+        <v>3.2780997059829842E-2</v>
+      </c>
+      <c r="N22" s="2">
         <f t="shared" si="2"/>
-        <v>3.7306977370105874</v>
-      </c>
-      <c r="M22" s="2">
-        <f t="shared" si="3"/>
-        <v>3.2780997059829842E-2</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" si="4"/>
         <v>2.7617729029743847E-2</v>
       </c>
       <c r="O22" s="2">
@@ -6696,23 +6696,23 @@
         <v>1.1972173631218079</v>
       </c>
       <c r="J23" s="2">
+        <f t="shared" si="3"/>
+        <v>3.1648136339909372</v>
+      </c>
+      <c r="K23" s="2">
         <f t="shared" si="0"/>
-        <v>3.1648136339909372</v>
-      </c>
-      <c r="K23" s="2">
+        <v>2.6434745531408912</v>
+      </c>
+      <c r="L23" s="2">
         <f t="shared" si="1"/>
-        <v>2.6434745531408912</v>
-      </c>
-      <c r="L23" s="2">
+        <v>3.7038627963754758</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="4"/>
+        <v>3.3182356406152413E-2</v>
+      </c>
+      <c r="N23" s="2">
         <f t="shared" si="2"/>
-        <v>3.7038627963754758</v>
-      </c>
-      <c r="M23" s="2">
-        <f t="shared" si="3"/>
-        <v>3.3182356406152413E-2</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" si="4"/>
         <v>2.7750177614030296E-2</v>
       </c>
       <c r="O23" s="2">
@@ -6770,23 +6770,23 @@
         <v>1.209249597657249</v>
       </c>
       <c r="J24" s="2">
+        <f t="shared" si="3"/>
+        <v>3.2865696066373413</v>
+      </c>
+      <c r="K24" s="2">
         <f t="shared" si="0"/>
-        <v>3.2865696066373413</v>
-      </c>
-      <c r="K24" s="2">
+        <v>2.7178587555493983</v>
+      </c>
+      <c r="L24" s="2">
         <f t="shared" si="1"/>
-        <v>2.7178587555493983</v>
-      </c>
-      <c r="L24" s="2">
+        <v>3.6786970628858833</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="4"/>
+        <v>3.3563187660235402E-2</v>
+      </c>
+      <c r="N24" s="2">
         <f t="shared" si="2"/>
-        <v>3.6786970628858833</v>
-      </c>
-      <c r="M24" s="2">
-        <f t="shared" si="3"/>
-        <v>3.3563187660235402E-2</v>
-      </c>
-      <c r="N24" s="2">
-        <f t="shared" si="4"/>
         <v>2.7875851927877681E-2</v>
       </c>
       <c r="O24" s="2">
@@ -6844,23 +6844,23 @@
         <v>1.2214027581601672</v>
       </c>
       <c r="J25" s="2">
+        <f t="shared" si="3"/>
+        <v>3.4134387013030141</v>
+      </c>
+      <c r="K25" s="2">
         <f t="shared" si="0"/>
-        <v>3.4134387013030141</v>
-      </c>
-      <c r="K25" s="2">
+        <v>2.794687238503351</v>
+      </c>
+      <c r="L25" s="2">
         <f t="shared" si="1"/>
-        <v>2.794687238503351</v>
-      </c>
-      <c r="L25" s="2">
+        <v>3.6550940258915845</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="4"/>
+        <v>3.3924345850992993E-2</v>
+      </c>
+      <c r="N25" s="2">
         <f t="shared" si="2"/>
-        <v>3.6550940258915845</v>
-      </c>
-      <c r="M25" s="2">
-        <f t="shared" si="3"/>
-        <v>3.3924345850992993E-2</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" si="4"/>
         <v>2.7995034130827687E-2</v>
       </c>
       <c r="O25" s="2">
@@ -6918,23 +6918,23 @@
         <v>1.2336780599567405</v>
       </c>
       <c r="J26" s="2">
+        <f t="shared" si="3"/>
+        <v>3.5456277833922343</v>
+      </c>
+      <c r="K26" s="2">
         <f t="shared" si="0"/>
-        <v>3.5456277833922343</v>
-      </c>
-      <c r="K26" s="2">
+        <v>2.8740300232919465</v>
+      </c>
+      <c r="L26" s="2">
         <f t="shared" si="1"/>
-        <v>2.8740300232919465</v>
-      </c>
-      <c r="L26" s="2">
+        <v>3.632954263582302</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="4"/>
+        <v>3.4266671980814137E-2</v>
+      </c>
+      <c r="N26" s="2">
         <f t="shared" si="2"/>
-        <v>3.632954263582302</v>
-      </c>
-      <c r="M26" s="2">
-        <f t="shared" si="3"/>
-        <v>3.4266671980814137E-2</v>
-      </c>
-      <c r="N26" s="2">
-        <f t="shared" si="4"/>
         <v>2.8108001753668663E-2</v>
       </c>
       <c r="O26" s="2">
@@ -6992,23 +6992,23 @@
         <v>1.2460767305873779</v>
       </c>
       <c r="J27" s="2">
+        <f t="shared" si="3"/>
+        <v>3.6833521057768399</v>
+      </c>
+      <c r="K27" s="2">
         <f t="shared" si="0"/>
-        <v>3.6833521057768399</v>
-      </c>
-      <c r="K27" s="2">
+        <v>2.9559593044006003</v>
+      </c>
+      <c r="L27" s="2">
         <f t="shared" si="1"/>
-        <v>2.9559593044006003</v>
-      </c>
-      <c r="L27" s="2">
+        <v>3.6121849406733944</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="4"/>
+        <v>3.4590990565271956E-2</v>
+      </c>
+      <c r="N27" s="2">
         <f t="shared" si="2"/>
-        <v>3.6121849406733944</v>
-      </c>
-      <c r="M27" s="2">
-        <f t="shared" si="3"/>
-        <v>3.4590990565271956E-2</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" si="4"/>
         <v>2.8215026886539745E-2</v>
       </c>
       <c r="O27" s="2">
@@ -7066,23 +7066,23 @@
         <v>1.2586000099294747</v>
       </c>
       <c r="J28" s="2">
+        <f t="shared" si="3"/>
+        <v>3.8268356580525165</v>
+      </c>
+      <c r="K28" s="2">
         <f t="shared" si="0"/>
-        <v>3.8268356580525165</v>
-      </c>
-      <c r="K28" s="2">
+        <v>3.0405495215806901</v>
+      </c>
+      <c r="L28" s="2">
         <f t="shared" si="1"/>
-        <v>3.0405495215806901</v>
-      </c>
-      <c r="L28" s="2">
+        <v>3.592699344643798</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="4"/>
+        <v>3.4898107552961424E-2</v>
+      </c>
+      <c r="N28" s="2">
         <f t="shared" si="2"/>
-        <v>3.592699344643798</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" si="3"/>
-        <v>3.4898107552961424E-2</v>
-      </c>
-      <c r="N28" s="2">
-        <f t="shared" si="4"/>
         <v>2.8316375492477269E-2</v>
       </c>
       <c r="O28" s="2">
@@ -7140,23 +7140,23 @@
         <v>1.2712491503214014</v>
       </c>
       <c r="J29" s="2">
+        <f t="shared" si="3"/>
+        <v>3.9763115296503355</v>
+      </c>
+      <c r="K29" s="2">
         <f t="shared" si="0"/>
-        <v>3.9763115296503355</v>
-      </c>
-      <c r="K29" s="2">
+        <v>3.1278774335031265</v>
+      </c>
+      <c r="L29" s="2">
         <f t="shared" si="1"/>
-        <v>3.1278774335031265</v>
-      </c>
-      <c r="L29" s="2">
+        <v>3.5744164573128274</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="4"/>
+        <v>3.5188808596103821E-2</v>
+      </c>
+      <c r="N29" s="2">
         <f t="shared" si="2"/>
-        <v>3.5744164573128274</v>
-      </c>
-      <c r="M29" s="2">
-        <f t="shared" si="3"/>
-        <v>3.5188808596103821E-2</v>
-      </c>
-      <c r="N29" s="2">
-        <f t="shared" si="4"/>
         <v>2.8412306836714259E-2</v>
       </c>
       <c r="O29" s="2">
@@ -7214,23 +7214,23 @@
         <v>1.2840254166877381</v>
       </c>
       <c r="J30" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1320222873739354</v>
+      </c>
+      <c r="K30" s="2">
         <f t="shared" si="0"/>
-        <v>4.1320222873739354</v>
-      </c>
-      <c r="K30" s="2">
+        <v>3.2180221930753268</v>
+      </c>
+      <c r="L30" s="2">
         <f t="shared" si="1"/>
-        <v>3.2180221930753268</v>
-      </c>
-      <c r="L30" s="2">
+        <v>3.5572605588282071</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="4"/>
+        <v>3.5463857642623692E-2</v>
+      </c>
+      <c r="N30" s="2">
         <f t="shared" si="2"/>
-        <v>3.5572605588282071</v>
-      </c>
-      <c r="M30" s="2">
-        <f t="shared" si="3"/>
-        <v>3.5463857642623692E-2</v>
-      </c>
-      <c r="N30" s="2">
-        <f t="shared" si="4"/>
         <v>2.8503073022065818E-2</v>
       </c>
       <c r="O30" s="2">
@@ -7288,23 +7288,23 @@
         <v>1.2969300866657683</v>
       </c>
       <c r="J31" s="2">
+        <f t="shared" si="3"/>
+        <v>4.2942203679584559</v>
+      </c>
+      <c r="K31" s="2">
         <f t="shared" si="0"/>
-        <v>4.2942203679584559</v>
-      </c>
-      <c r="K31" s="2">
+        <v>3.3110654245043505</v>
+      </c>
+      <c r="L31" s="2">
         <f t="shared" si="1"/>
-        <v>3.3110654245043505</v>
-      </c>
-      <c r="L31" s="2">
+        <v>3.5411608613972048</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="4"/>
+        <v>3.572399582089604E-2</v>
+      </c>
+      <c r="N31" s="2">
         <f t="shared" si="2"/>
-        <v>3.5411608613972048</v>
-      </c>
-      <c r="M31" s="2">
-        <f t="shared" si="3"/>
-        <v>3.572399582089604E-2</v>
-      </c>
-      <c r="N31" s="2">
-        <f t="shared" si="4"/>
         <v>2.8588918620895694E-2</v>
       </c>
       <c r="O31" s="2">
@@ -7362,23 +7362,23 @@
         <v>1.3099644507332437</v>
       </c>
       <c r="J32" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4631684862735943</v>
+      </c>
+      <c r="K32" s="2">
         <f t="shared" si="0"/>
-        <v>4.4631684862735943</v>
-      </c>
-      <c r="K32" s="2">
+        <v>3.4070913021917244</v>
+      </c>
+      <c r="L32" s="2">
         <f t="shared" si="1"/>
-        <v>3.4070913021917244</v>
-      </c>
-      <c r="L32" s="2">
+        <v>3.5260511703284609</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="4"/>
+        <v>3.5969940589195754E-2</v>
+      </c>
+      <c r="N32" s="2">
         <f t="shared" si="2"/>
-        <v>3.5260511703284609</v>
-      </c>
-      <c r="M32" s="2">
-        <f t="shared" si="3"/>
-        <v>3.5969940589195754E-2</v>
-      </c>
-      <c r="N32" s="2">
-        <f t="shared" si="4"/>
         <v>2.8670080394434597E-2</v>
       </c>
       <c r="O32" s="2">
@@ -7436,23 +7436,23 @@
         <v>1.3231298123374331</v>
       </c>
       <c r="J33" s="2">
+        <f t="shared" si="3"/>
+        <v>4.6391400598202575</v>
+      </c>
+      <c r="K33" s="2">
         <f t="shared" si="0"/>
-        <v>4.6391400598202575</v>
-      </c>
-      <c r="K33" s="2">
+        <v>3.5061866315481023</v>
+      </c>
+      <c r="L33" s="2">
         <f t="shared" si="1"/>
-        <v>3.5061866315481023</v>
-      </c>
-      <c r="L33" s="2">
+        <v>3.5118695701661551</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="4"/>
+        <v>3.6202385122979089E-2</v>
+      </c>
+      <c r="N33" s="2">
         <f t="shared" si="2"/>
-        <v>3.5118695701661551</v>
-      </c>
-      <c r="M33" s="2">
-        <f t="shared" si="3"/>
-        <v>3.6202385122979089E-2</v>
-      </c>
-      <c r="N33" s="2">
-        <f t="shared" si="4"/>
         <v>2.8746787090583099E-2</v>
       </c>
       <c r="O33" s="2">
@@ -7510,23 +7510,23 @@
         <v>1.3364274880254681</v>
       </c>
       <c r="J34" s="2">
+        <f t="shared" si="3"/>
+        <v>4.8224196501980225</v>
+      </c>
+      <c r="K34" s="2">
         <f t="shared" si="0"/>
-        <v>4.8224196501980225</v>
-      </c>
-      <c r="K34" s="2">
+        <v>3.6084409318181598</v>
+      </c>
+      <c r="L34" s="2">
         <f t="shared" si="1"/>
-        <v>3.6084409318181598</v>
-      </c>
-      <c r="L34" s="2">
+        <v>3.4985581338925384</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="4"/>
+        <v>3.642199791442674E-2</v>
+      </c>
+      <c r="N34" s="2">
         <f t="shared" si="2"/>
-        <v>3.4985581338925384</v>
-      </c>
-      <c r="M34" s="2">
-        <f t="shared" si="3"/>
-        <v>3.642199791442674E-2</v>
-      </c>
-      <c r="N34" s="2">
-        <f t="shared" si="4"/>
         <v>2.8819259311760822E-2</v>
       </c>
       <c r="O34" s="2">
@@ -7584,23 +7584,23 @@
         <v>1.349858807575999</v>
       </c>
       <c r="J35" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0133034222493169</v>
+      </c>
+      <c r="K35" s="2">
         <f t="shared" si="0"/>
-        <v>5.0133034222493169</v>
-      </c>
-      <c r="K35" s="2">
+        <v>3.7139465210083173</v>
+      </c>
+      <c r="L35" s="2">
         <f t="shared" si="1"/>
-        <v>3.7139465210083173</v>
-      </c>
-      <c r="L35" s="2">
+        <v>3.4860626533513859</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="4"/>
+        <v>3.6629422560118738E-2</v>
+      </c>
+      <c r="N35" s="2">
         <f t="shared" si="2"/>
-        <v>3.4860626533513859</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" si="3"/>
-        <v>3.6629422560118738E-2</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" si="4"/>
         <v>2.8887709444839184E-2</v>
       </c>
       <c r="O35" s="2">
@@ -7658,23 +7658,23 @@
         <v>1.3634251141321734</v>
       </c>
       <c r="J36" s="2">
+        <f t="shared" si="3"/>
+        <v>5.2120996216157476</v>
+      </c>
+      <c r="K36" s="2">
         <f t="shared" si="0"/>
-        <v>5.2120996216157476</v>
-      </c>
-      <c r="K36" s="2">
+        <v>3.8227986030118521</v>
+      </c>
+      <c r="L36" s="2">
         <f t="shared" si="1"/>
-        <v>3.8227986030118521</v>
-      </c>
-      <c r="L36" s="2">
+        <v>3.4743323892052573</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="4"/>
+        <v>3.6825277714243945E-2</v>
+      </c>
+      <c r="N36" s="2">
         <f t="shared" si="2"/>
-        <v>3.4743323892052573</v>
-      </c>
-      <c r="M36" s="2">
-        <f t="shared" si="3"/>
-        <v>3.6825277714243945E-2</v>
-      </c>
-      <c r="N36" s="2">
-        <f t="shared" si="4"/>
         <v>2.89523416457005E-2</v>
       </c>
       <c r="O36" s="2">
@@ -12468,11 +12468,11 @@
         <v>2.6116964734230907</v>
       </c>
       <c r="J101" s="2">
-        <f t="shared" ref="J101:J132" si="41">G101^B101*(H101*I101)^(1-B101)</f>
+        <f t="shared" ref="J101:J104" si="41">G101^B101*(H101*I101)^(1-B101)</f>
         <v>68.9658305572367</v>
       </c>
       <c r="K101" s="2">
-        <f t="shared" ref="K101:K132" si="42">J101/I101</f>
+        <f t="shared" ref="K101:K104" si="42">J101/I101</f>
         <v>26.4065258957312</v>
       </c>
       <c r="L101" s="2">
@@ -12480,11 +12480,11 @@
         <v>3.2961698048017944</v>
       </c>
       <c r="M101" s="2">
-        <f t="shared" ref="M101:M132" si="43">C101*(1/L101)^(1-B101)-E101</f>
+        <f t="shared" ref="M101:M104" si="43">C101*(1/L101)^(1-B101)-E101</f>
         <v>3.9942215129259981E-2</v>
       </c>
       <c r="N101" s="2">
-        <f t="shared" ref="N101:N132" si="44">B101*(M101-F101-D101)+F101</f>
+        <f t="shared" ref="N101:N104" si="44">B101*(M101-F101-D101)+F101</f>
         <v>2.9980930992655794E-2</v>
       </c>
       <c r="O101" s="2">
